--- a/TNR_JDD/JDD.AD.SEC.xlsx
+++ b/TNR_JDD/JDD.AD.SEC.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="228" yWindow="504" windowWidth="21852" windowHeight="7092" activeTab="3"/>
-  </bookViews>
   <sheets>
-    <sheet name="Version" sheetId="1" r:id="rId1"/>
-    <sheet name="Info" sheetId="2" r:id="rId2"/>
-    <sheet name="001" sheetId="3" r:id="rId3"/>
-    <sheet name="014" sheetId="4" r:id="rId4"/>
-    <sheet name="IHMTO" sheetId="5" r:id="rId5"/>
-    <sheet name="MODELE" sheetId="6" r:id="rId6"/>
+    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="014" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="IHMTO" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="MODELE" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="YcMzfGN0/rDptfePxAnci/cgf967tEMsXJlWlaErFow="/>
@@ -79,19 +76,19 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">PK en </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t>rouge</t>
     </r>
@@ -214,6 +211,9 @@
     <t>AD.SEC.014.FON.01</t>
   </si>
   <si>
+    <t>DEC</t>
+  </si>
+  <si>
     <t>TAB</t>
   </si>
   <si>
@@ -222,28 +222,28 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">XPATH (if xpath is dynamic, put </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t>${FIELDNAME}</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> instead of the value of the mentioned field name.</t>
     </r>
@@ -281,74 +281,64 @@
   <si>
     <t>Champ</t>
   </si>
-  <si>
-    <t>$TBD</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -357,7 +347,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -427,13 +417,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -447,92 +431,119 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="8" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="10" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -722,31 +733,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.63"/>
+    <col customWidth="1" min="2" max="2" width="17.75"/>
+    <col customWidth="1" min="3" max="3" width="59.0"/>
+    <col customWidth="1" min="4" max="4" width="10.63"/>
+    <col customWidth="1" min="5" max="5" width="12.13"/>
+    <col customWidth="1" min="6" max="6" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,9 +777,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="3">
-        <v>45009.641648321762</v>
+        <v>45009.64164832176</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -783,20 +794,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="3" ht="12.75" customHeight="1"/>
+    <row r="4" ht="12.75" customHeight="1"/>
+    <row r="5" ht="12.75" customHeight="1"/>
+    <row r="6" ht="12.75" customHeight="1"/>
+    <row r="7" ht="12.75" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1"/>
+    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1782,33 +1793,37 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <pane xSplit="1.0" ySplit="2.0" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="13.5"/>
+    <col customWidth="1" min="2" max="2" width="53.0"/>
+    <col customWidth="1" min="3" max="3" width="24.5"/>
+    <col customWidth="1" min="4" max="4" width="28.13"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="11.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1828,7 +1843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1844,7 +1859,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1862,7 +1877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -1870,7 +1885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -1878,7 +1893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -1886,7 +1901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
@@ -1894,7 +1909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
@@ -1902,7 +1917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
@@ -1910,7 +1925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>30</v>
       </c>
@@ -1918,12 +1933,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2909,35 +2924,37 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="31.88"/>
+    <col customWidth="1" min="2" max="2" width="20.75"/>
+    <col customWidth="1" min="3" max="3" width="14.63"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col customWidth="1" min="10" max="10" width="13.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -2987,7 +3004,7 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2" spans="1:26" ht="13.2">
+    <row r="2">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
@@ -3002,7 +3019,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:26" ht="13.2">
+    <row r="3">
       <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
@@ -3017,7 +3034,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:26" ht="13.2">
+    <row r="4">
       <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
@@ -3032,7 +3049,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="13.2">
+    <row r="5">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
@@ -3053,7 +3070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
@@ -3068,7 +3085,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>42</v>
       </c>
@@ -3101,7 +3118,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>49</v>
       </c>
@@ -3136,7 +3153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>54</v>
       </c>
@@ -3169,7 +3186,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>55</v>
       </c>
@@ -3202,640 +3219,640 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="21"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="21"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="21"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="21"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="21"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="21"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="21"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="21"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="21"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="21"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="21"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="21"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="21"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="21"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="21"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="21"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="21"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="21"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="21"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="21"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="21"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="21"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="21"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="21"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="21"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="21"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="21"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="21"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="21"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="21"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="21"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="21"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="21"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="21"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="21"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="21"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="21"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="21"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="21"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="21"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="21"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="21"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="21"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="21"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="21"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="21"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="21"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="21"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="21"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="21"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="21"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="21"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="21"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="21"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="21"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="21"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="21"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="21"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="21"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="21"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="21"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="21"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="21"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="21"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="21"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="21"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="21"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="21"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="21"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="21"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="21"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="21"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="21"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="21"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="21"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="21"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="21"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="21"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="21"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="21"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="21"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="21"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="21"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="21"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="21"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="21"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="21"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="21"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="21"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="21"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="21"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="21"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="21"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="21"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="21"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="21"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="21"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="21"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="21"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="21"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="21"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="21"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="21"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="21"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="21"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="21"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="21"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="21"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="21"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="21"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="21"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="21"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="21"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="21"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="21"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="21"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="21"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="21"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="21"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="21"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="21"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="21"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="21"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="21"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="21"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="21"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="21"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="21"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -4613,33 +4630,35 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="31.88"/>
+    <col customWidth="1" min="2" max="2" width="20.75"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -4685,7 +4704,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="14"/>
     </row>
-    <row r="2" spans="1:24" ht="13.2">
+    <row r="2">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
@@ -4699,7 +4718,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:24" ht="13.2">
+    <row r="3">
       <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
@@ -4713,7 +4732,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:24" ht="13.2">
+    <row r="4">
       <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
@@ -4727,7 +4746,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:24" ht="13.2">
+    <row r="5">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
@@ -4745,7 +4764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
@@ -4759,7 +4778,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>56</v>
       </c>
@@ -4776,7 +4795,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>47</v>
@@ -4785,649 +4804,649 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="21"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="21"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="21"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="21"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="21"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="21"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="21"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="21"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="21"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="21"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="21"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="21"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="21"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="21"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="21"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="21"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="21"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="21"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="21"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="21"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="21"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="21"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="21"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="21"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="21"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="21"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="21"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="21"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="21"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="21"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="21"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="21"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="21"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="21"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="21"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="21"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="21"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="21"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="21"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="21"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="21"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="21"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="21"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="21"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="21"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="21"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="21"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="21"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="21"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="21"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="21"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="21"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="21"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="21"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="21"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="21"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="21"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="21"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="21"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="21"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="21"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="21"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="21"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="21"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="21"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="21"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="21"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="21"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="21"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="21"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="21"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="21"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="21"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="21"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="21"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="21"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="21"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="21"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="21"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="21"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="21"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="21"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="21"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="21"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="21"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="21"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="21"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="21"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="21"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="21"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="21"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="21"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="21"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="21"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="21"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="21"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="21"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="21"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="21"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="21"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="21"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="21"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="21"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="21"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="21"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="21"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="21"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="21"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="21"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="21"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="21"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="21"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="21"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="21"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="21"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="21"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="21"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="21"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="21"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="21"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="21"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="21"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="21"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="21"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="21"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="21"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="21"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="21"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="21"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="21"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="21"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -6205,94 +6224,98 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" customWidth="1"/>
-    <col min="4" max="26" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.63"/>
+    <col customWidth="1" min="2" max="2" width="17.25"/>
+    <col customWidth="1" min="3" max="3" width="86.38"/>
+    <col customWidth="1" min="4" max="26" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1"/>
+    <row r="7" ht="12.75" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1"/>
+    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -7278,36 +7301,38 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="31.88"/>
+    <col customWidth="1" min="2" max="2" width="20.75"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -7334,682 +7359,682 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2" spans="1:26" ht="13.2">
+    <row r="2">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:26" ht="13.2">
+    <row r="3">
       <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:26" ht="13.2">
+    <row r="4">
       <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="13.2">
+    <row r="5">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="18"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="21"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="21"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="21"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="21"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="21"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="21"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="21"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="21"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="21"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="21"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="21"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="21"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="21"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="21"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="21"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="21"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="21"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="21"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="21"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="21"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="21"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="21"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="21"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="21"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="21"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="21"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="21"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="21"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="21"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="21"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="21"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="21"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="21"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="21"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="21"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="21"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="21"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="21"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="21"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="21"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="21"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="21"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="21"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="21"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="21"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="21"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="21"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="21"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="21"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="21"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="21"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="21"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="21"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="21"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="21"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="21"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="21"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="21"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="21"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="21"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="21"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="21"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="21"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="21"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="21"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="21"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="21"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="21"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="21"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="21"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="21"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="21"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="21"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="21"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="21"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="21"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="21"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="21"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="21"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="21"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="21"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="21"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="21"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="21"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="21"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="21"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="21"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="21"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="21"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="21"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="21"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="21"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="21"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="21"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="21"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="21"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="21"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="21"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="21"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="21"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="21"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="21"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="21"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="21"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="21"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="21"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="21"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="21"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="21"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="21"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="21"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="21"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="21"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="21"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="21"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="21"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="21"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="21"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="21"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="21"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="21"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="21"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="21"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="21"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="21"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="21"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="21"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="21"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="21"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="21"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="21"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="21"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -8787,7 +8812,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TNR_JDD/JDD.AD.SEC.xlsx
+++ b/TNR_JDD/JDD.AD.SEC.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="10425" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="014" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="IHMTO" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="MODELE" sheetId="6" r:id="rId9"/>
+    <sheet name="Version" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
+    <sheet name="001" sheetId="3" r:id="rId3"/>
+    <sheet name="014" sheetId="4" r:id="rId4"/>
+    <sheet name="IHMTO" sheetId="5" r:id="rId5"/>
+    <sheet name="MODELE" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="YcMzfGN0/rDptfePxAnci/cgf967tEMsXJlWlaErFow="/>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -76,19 +79,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">PK en </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>rouge</t>
     </r>
@@ -222,28 +225,28 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">XPATH (if xpath is dynamic, put </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>${FIELDNAME}</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> instead of the value of the mentioned field name.</t>
     </r>
@@ -281,64 +284,74 @@
   <si>
     <t>Champ</t>
   </si>
+  <si>
+    <t>TNR COUCOU</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -347,7 +360,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -417,7 +430,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -431,119 +450,92 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="10" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -733,31 +725,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.63"/>
-    <col customWidth="1" min="2" max="2" width="17.75"/>
-    <col customWidth="1" min="3" max="3" width="59.0"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="12.13"/>
-    <col customWidth="1" min="6" max="6" width="10.63"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,9 +769,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="3">
-        <v>45009.64164832176</v>
+        <v>45009.641648321762</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -794,20 +786,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1793,37 +1785,33 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="2.0" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.5"/>
-    <col customWidth="1" min="2" max="2" width="53.0"/>
-    <col customWidth="1" min="3" max="3" width="24.5"/>
-    <col customWidth="1" min="4" max="4" width="28.13"/>
-    <col customWidth="1" min="5" max="5" width="10.63"/>
-    <col customWidth="1" min="6" max="6" width="11.88"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1843,7 +1831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1859,7 +1847,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1877,7 +1865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -1885,7 +1873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -1893,7 +1881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +1889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
@@ -1909,7 +1897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
@@ -1917,7 +1905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
@@ -1925,7 +1913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>30</v>
       </c>
@@ -1933,12 +1921,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2924,37 +2912,35 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.88"/>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="3" width="14.63"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
-    <col customWidth="1" min="10" max="10" width="13.63"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="6" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -3004,7 +2990,7 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
@@ -3019,7 +3005,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
@@ -3034,7 +3020,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
@@ -3049,7 +3035,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
@@ -3070,7 +3056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
@@ -3085,12 +3071,12 @@
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>44</v>
@@ -3118,7 +3104,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>49</v>
       </c>
@@ -3153,7 +3139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>54</v>
       </c>
@@ -3186,7 +3172,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>55</v>
       </c>
@@ -3219,640 +3205,640 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
       <c r="A21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
       <c r="A22" s="21"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
       <c r="A23" s="21"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
       <c r="A24" s="21"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
       <c r="A26" s="21"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
       <c r="A27" s="21"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
       <c r="A29" s="21"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
       <c r="A30" s="21"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="21"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="21"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="21"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="21"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" s="21"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" s="21"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" s="21"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" s="21"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" s="21"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" s="21"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" s="21"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" s="21"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" s="21"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" s="21"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" s="21"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" s="21"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" s="21"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" s="21"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" s="21"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" s="21"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" s="21"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" s="21"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" s="21"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" s="21"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" s="21"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" s="21"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" s="21"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" s="21"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" s="21"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1">
       <c r="A97" s="21"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1">
       <c r="A98" s="21"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1">
       <c r="A99" s="21"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1">
       <c r="A100" s="21"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1">
       <c r="A101" s="21"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1">
       <c r="A102" s="21"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1">
       <c r="A103" s="21"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1">
       <c r="A104" s="21"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1">
       <c r="A105" s="21"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1">
       <c r="A106" s="21"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1">
       <c r="A107" s="21"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1">
       <c r="A108" s="21"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1">
       <c r="A109" s="21"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1">
       <c r="A110" s="21"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1">
       <c r="A111" s="21"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1">
       <c r="A112" s="21"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" s="21"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" s="21"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" s="21"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" s="21"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" s="21"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" s="21"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" s="21"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" s="21"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" s="21"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" s="21"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" s="21"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" s="21"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" s="21"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" s="21"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1">
       <c r="A127" s="21"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1">
       <c r="A128" s="21"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
       <c r="A129" s="21"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
       <c r="A130" s="21"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
       <c r="A131" s="21"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
       <c r="A132" s="21"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
       <c r="A133" s="21"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
       <c r="A134" s="21"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
       <c r="A135" s="21"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
       <c r="A136" s="21"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
       <c r="A137" s="21"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
       <c r="A139" s="21"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
       <c r="A140" s="21"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
       <c r="A141" s="21"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
       <c r="A142" s="21"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
       <c r="A143" s="21"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1">
       <c r="A144" s="21"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
       <c r="A145" s="21"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
       <c r="A146" s="21"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
       <c r="A147" s="21"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
       <c r="A148" s="21"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
       <c r="A149" s="21"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
       <c r="A150" s="21"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
       <c r="A151" s="21"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1">
       <c r="A152" s="21"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1">
       <c r="A153" s="21"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1">
       <c r="A154" s="21"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1">
       <c r="A155" s="21"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1">
       <c r="A156" s="21"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1">
       <c r="A157" s="21"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1">
       <c r="A158" s="21"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1">
       <c r="A159" s="21"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1">
       <c r="A160" s="21"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1">
       <c r="A161" s="21"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1">
       <c r="A162" s="21"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1">
       <c r="A163" s="21"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1">
       <c r="A164" s="21"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1">
       <c r="A166" s="21"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1">
       <c r="A167" s="21"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1">
       <c r="A168" s="21"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1">
       <c r="A169" s="21"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1">
       <c r="A170" s="21"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1">
       <c r="A171" s="21"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1">
       <c r="A172" s="21"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1">
       <c r="A173" s="21"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1">
       <c r="A174" s="21"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1">
       <c r="A175" s="21"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1">
       <c r="A176" s="21"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1">
       <c r="A177" s="21"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1">
       <c r="A178" s="21"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1">
       <c r="A179" s="21"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1">
       <c r="A180" s="21"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1">
       <c r="A181" s="21"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1">
       <c r="A182" s="21"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -4630,35 +4616,33 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.88"/>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -4704,7 +4688,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="14"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" ht="12.75">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
@@ -4718,7 +4702,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" ht="12.75">
       <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
@@ -4732,7 +4716,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="12.75">
       <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
@@ -4746,7 +4730,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="12.75">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
@@ -4764,7 +4748,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:24" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
@@ -4778,7 +4762,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>56</v>
       </c>
@@ -4804,649 +4788,649 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
       <c r="A21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
       <c r="A22" s="21"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
       <c r="A23" s="21"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
       <c r="A24" s="21"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
       <c r="A26" s="21"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
       <c r="A27" s="21"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
       <c r="A29" s="21"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
       <c r="A30" s="21"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="21"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="21"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="21"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="21"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" s="21"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" s="21"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" s="21"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" s="21"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" s="21"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" s="21"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" s="21"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" s="21"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" s="21"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" s="21"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" s="21"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" s="21"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" s="21"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" s="21"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" s="21"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" s="21"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" s="21"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" s="21"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" s="21"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" s="21"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" s="21"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" s="21"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" s="21"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" s="21"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" s="21"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1">
       <c r="A97" s="21"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1">
       <c r="A98" s="21"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1">
       <c r="A99" s="21"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1">
       <c r="A100" s="21"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1">
       <c r="A101" s="21"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1">
       <c r="A102" s="21"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1">
       <c r="A103" s="21"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1">
       <c r="A104" s="21"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1">
       <c r="A105" s="21"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1">
       <c r="A106" s="21"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1">
       <c r="A107" s="21"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1">
       <c r="A108" s="21"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1">
       <c r="A109" s="21"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1">
       <c r="A110" s="21"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1">
       <c r="A111" s="21"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1">
       <c r="A112" s="21"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" s="21"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" s="21"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" s="21"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" s="21"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" s="21"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" s="21"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" s="21"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" s="21"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" s="21"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" s="21"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" s="21"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" s="21"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" s="21"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" s="21"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1">
       <c r="A127" s="21"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1">
       <c r="A128" s="21"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
       <c r="A129" s="21"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
       <c r="A130" s="21"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
       <c r="A131" s="21"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
       <c r="A132" s="21"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
       <c r="A133" s="21"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
       <c r="A134" s="21"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
       <c r="A135" s="21"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
       <c r="A136" s="21"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
       <c r="A137" s="21"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
       <c r="A139" s="21"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
       <c r="A140" s="21"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
       <c r="A141" s="21"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
       <c r="A142" s="21"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
       <c r="A143" s="21"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1">
       <c r="A144" s="21"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
       <c r="A145" s="21"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
       <c r="A146" s="21"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
       <c r="A147" s="21"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
       <c r="A148" s="21"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
       <c r="A149" s="21"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
       <c r="A150" s="21"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
       <c r="A151" s="21"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1">
       <c r="A152" s="21"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1">
       <c r="A153" s="21"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1">
       <c r="A154" s="21"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1">
       <c r="A155" s="21"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1">
       <c r="A156" s="21"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1">
       <c r="A157" s="21"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1">
       <c r="A158" s="21"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1">
       <c r="A159" s="21"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1">
       <c r="A160" s="21"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1">
       <c r="A161" s="21"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1">
       <c r="A162" s="21"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1">
       <c r="A163" s="21"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1">
       <c r="A164" s="21"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1">
       <c r="A166" s="21"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1">
       <c r="A167" s="21"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1">
       <c r="A168" s="21"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1">
       <c r="A169" s="21"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1">
       <c r="A170" s="21"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1">
       <c r="A171" s="21"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1">
       <c r="A172" s="21"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1">
       <c r="A173" s="21"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1">
       <c r="A174" s="21"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1">
       <c r="A175" s="21"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1">
       <c r="A176" s="21"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1">
       <c r="A177" s="21"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1">
       <c r="A178" s="21"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1">
       <c r="A179" s="21"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1">
       <c r="A180" s="21"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1">
       <c r="A181" s="21"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1">
       <c r="A182" s="21"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -6224,33 +6208,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.63"/>
-    <col customWidth="1" min="2" max="2" width="17.25"/>
-    <col customWidth="1" min="3" max="3" width="86.38"/>
-    <col customWidth="1" min="4" max="26" width="10.63"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="86.42578125" customWidth="1"/>
+    <col min="4" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>58</v>
       </c>
@@ -6261,7 +6241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>19</v>
       </c>
@@ -6272,7 +6252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>19</v>
       </c>
@@ -6283,7 +6263,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>65</v>
       </c>
@@ -6294,7 +6274,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>68</v>
       </c>
@@ -6305,17 +6285,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -7301,35 +7281,33 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.88"/>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
         <v>71</v>
@@ -7359,682 +7337,682 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="16"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="16"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="16"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="16"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="18"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
       <c r="A21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
       <c r="A22" s="21"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
       <c r="A23" s="21"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
       <c r="A24" s="21"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
       <c r="A26" s="21"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
       <c r="A27" s="21"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
       <c r="A29" s="21"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
       <c r="A30" s="21"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="21"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="21"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="21"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="21"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" s="21"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" s="21"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" s="21"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" s="21"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" s="21"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" s="21"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" s="21"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" s="21"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" s="21"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" s="21"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" s="21"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" s="21"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" s="21"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" s="21"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" s="21"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" s="21"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" s="21"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" s="21"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" s="21"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" s="21"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" s="21"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" s="21"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" s="21"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" s="21"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" s="21"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1">
       <c r="A97" s="21"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1">
       <c r="A98" s="21"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1">
       <c r="A99" s="21"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1">
       <c r="A100" s="21"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1">
       <c r="A101" s="21"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1">
       <c r="A102" s="21"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1">
       <c r="A103" s="21"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1">
       <c r="A104" s="21"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1">
       <c r="A105" s="21"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1">
       <c r="A106" s="21"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1">
       <c r="A107" s="21"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1">
       <c r="A108" s="21"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1">
       <c r="A109" s="21"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1">
       <c r="A110" s="21"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1">
       <c r="A111" s="21"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1">
       <c r="A112" s="21"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" s="21"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" s="21"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" s="21"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" s="21"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" s="21"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" s="21"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" s="21"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" s="21"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" s="21"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" s="21"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" s="21"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" s="21"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" s="21"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" s="21"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1">
       <c r="A127" s="21"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1">
       <c r="A128" s="21"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
       <c r="A129" s="21"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
       <c r="A130" s="21"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
       <c r="A131" s="21"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
       <c r="A132" s="21"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
       <c r="A133" s="21"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
       <c r="A134" s="21"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
       <c r="A135" s="21"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
       <c r="A136" s="21"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
       <c r="A137" s="21"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
       <c r="A139" s="21"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
       <c r="A140" s="21"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
       <c r="A141" s="21"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
       <c r="A142" s="21"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
       <c r="A143" s="21"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1">
       <c r="A144" s="21"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
       <c r="A145" s="21"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
       <c r="A146" s="21"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
       <c r="A147" s="21"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
       <c r="A148" s="21"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
       <c r="A149" s="21"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
       <c r="A150" s="21"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
       <c r="A151" s="21"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1">
       <c r="A152" s="21"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1">
       <c r="A153" s="21"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1">
       <c r="A154" s="21"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1">
       <c r="A155" s="21"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1">
       <c r="A156" s="21"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1">
       <c r="A157" s="21"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1">
       <c r="A158" s="21"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1">
       <c r="A159" s="21"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1">
       <c r="A160" s="21"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1">
       <c r="A161" s="21"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1">
       <c r="A162" s="21"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1">
       <c r="A163" s="21"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1">
       <c r="A164" s="21"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1">
       <c r="A166" s="21"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1">
       <c r="A167" s="21"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1">
       <c r="A168" s="21"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1">
       <c r="A169" s="21"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1">
       <c r="A170" s="21"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1">
       <c r="A171" s="21"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1">
       <c r="A172" s="21"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1">
       <c r="A173" s="21"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1">
       <c r="A174" s="21"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1">
       <c r="A175" s="21"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1">
       <c r="A176" s="21"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1">
       <c r="A177" s="21"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1">
       <c r="A178" s="21"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1">
       <c r="A179" s="21"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1">
       <c r="A180" s="21"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1">
       <c r="A181" s="21"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1">
       <c r="A182" s="21"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -8812,9 +8790,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TNR_JDD/JDD.AD.SEC.xlsx
+++ b/TNR_JDD/JDD.AD.SEC.xlsx
@@ -2928,7 +2928,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>

--- a/TNR_JDD/JDD.AD.SEC.xlsx
+++ b/TNR_JDD/JDD.AD.SEC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>Champ</t>
-  </si>
-  <si>
-    <t>TNR COUCOU</t>
   </si>
 </sst>
 </file>
@@ -2928,7 +2925,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3076,7 +3073,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>44</v>

--- a/TNR_JDD/JDD.AD.SEC.xlsx
+++ b/TNR_JDD/JDD.AD.SEC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -2921,11 +2921,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -6214,9 +6214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>

--- a/TNR_JDD/JDD.AD.SEC.xlsx
+++ b/TNR_JDD/JDD.AD.SEC.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="10425" activeTab="4"/>
-  </bookViews>
   <sheets>
-    <sheet name="Version" sheetId="1" r:id="rId1"/>
-    <sheet name="Info" sheetId="2" r:id="rId2"/>
-    <sheet name="001" sheetId="3" r:id="rId3"/>
-    <sheet name="014" sheetId="4" r:id="rId4"/>
-    <sheet name="IHMTO" sheetId="5" r:id="rId5"/>
-    <sheet name="MODELE" sheetId="6" r:id="rId6"/>
+    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="014" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="IHMTO" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="MODELE" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="YcMzfGN0/rDptfePxAnci/cgf967tEMsXJlWlaErFow="/>
@@ -79,19 +76,19 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">PK en </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t>rouge</t>
     </r>
@@ -225,28 +222,28 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">XPATH (if xpath is dynamic, put </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t>${FIELDNAME}</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> instead of the value of the mentioned field name.</t>
     </r>
@@ -288,67 +285,60 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -357,7 +347,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -427,13 +417,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -447,92 +431,119 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="8" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="10" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -722,31 +733,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.63"/>
+    <col customWidth="1" min="2" max="2" width="17.75"/>
+    <col customWidth="1" min="3" max="3" width="59.0"/>
+    <col customWidth="1" min="4" max="4" width="10.63"/>
+    <col customWidth="1" min="5" max="5" width="12.13"/>
+    <col customWidth="1" min="6" max="6" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,9 +777,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="3">
-        <v>45009.641648321762</v>
+        <v>45009.64164832176</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -783,20 +794,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="3" ht="12.75" customHeight="1"/>
+    <row r="4" ht="12.75" customHeight="1"/>
+    <row r="5" ht="12.75" customHeight="1"/>
+    <row r="6" ht="12.75" customHeight="1"/>
+    <row r="7" ht="12.75" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1"/>
+    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1782,33 +1793,37 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <pane xSplit="1.0" ySplit="2.0" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="13.5"/>
+    <col customWidth="1" min="2" max="2" width="53.0"/>
+    <col customWidth="1" min="3" max="3" width="24.5"/>
+    <col customWidth="1" min="4" max="4" width="28.13"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="11.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1828,7 +1843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1844,7 +1859,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1862,7 +1877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -1870,7 +1885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -1878,7 +1893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -1886,7 +1901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
@@ -1894,7 +1909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
@@ -1902,7 +1917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
@@ -1910,7 +1925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>30</v>
       </c>
@@ -1918,12 +1933,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2909,35 +2924,37 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="6" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="31.88"/>
+    <col customWidth="1" min="2" max="2" width="20.75"/>
+    <col customWidth="1" min="3" max="3" width="14.63"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col customWidth="1" min="10" max="10" width="13.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -2987,7 +3004,7 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75">
+    <row r="2">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
@@ -3002,7 +3019,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75">
+    <row r="3">
       <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
@@ -3017,7 +3034,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75">
+    <row r="4">
       <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
@@ -3032,7 +3049,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="12.75">
+    <row r="5">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
@@ -3053,7 +3070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
@@ -3068,7 +3085,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>42</v>
       </c>
@@ -3101,7 +3118,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>49</v>
       </c>
@@ -3136,7 +3153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>54</v>
       </c>
@@ -3169,7 +3186,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>55</v>
       </c>
@@ -3202,640 +3219,640 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="21"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="21"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="21"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="21"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="21"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="21"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="21"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="21"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="21"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="21"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="21"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="21"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="21"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="21"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="21"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="21"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="21"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="21"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="21"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="21"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="21"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="21"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="21"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="21"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="21"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="21"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="21"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="21"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="21"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="21"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="21"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="21"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="21"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="21"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="21"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="21"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="21"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="21"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="21"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="21"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="21"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="21"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="21"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="21"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="21"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="21"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="21"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="21"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="21"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="21"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="21"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="21"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="21"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="21"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="21"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="21"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="21"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="21"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="21"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="21"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="21"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="21"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="21"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="21"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="21"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="21"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="21"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="21"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="21"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="21"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="21"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="21"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="21"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="21"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="21"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="21"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="21"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="21"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="21"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="21"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="21"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="21"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="21"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="21"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="21"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="21"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="21"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="21"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="21"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="21"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="21"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="21"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="21"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="21"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="21"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="21"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="21"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="21"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="21"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="21"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="21"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="21"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="21"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="21"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="21"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="21"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="21"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="21"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="21"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="21"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="21"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="21"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="21"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="21"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="21"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="21"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="21"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="21"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="21"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="21"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="21"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="21"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="21"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="21"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="21"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="21"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="21"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="21"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -4613,33 +4630,35 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="6" width="12.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="31.88"/>
+    <col customWidth="1" min="2" max="2" width="20.75"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -4685,7 +4704,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="14"/>
     </row>
-    <row r="2" spans="1:24" ht="12.75">
+    <row r="2">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
@@ -4699,7 +4718,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:24" ht="12.75">
+    <row r="3">
       <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
@@ -4713,7 +4732,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:24" ht="12.75">
+    <row r="4">
       <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
@@ -4727,7 +4746,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:24" ht="12.75">
+    <row r="5">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
@@ -4745,7 +4764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
@@ -4759,7 +4778,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>56</v>
       </c>
@@ -4785,649 +4804,649 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="21"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="21"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="21"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="21"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="21"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="21"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="21"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="21"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="21"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="21"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="21"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="21"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="21"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="21"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="21"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="21"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="21"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="21"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="21"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="21"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="21"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="21"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="21"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="21"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="21"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="21"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="21"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="21"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="21"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="21"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="21"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="21"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="21"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="21"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="21"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="21"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="21"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="21"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="21"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="21"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="21"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="21"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="21"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="21"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="21"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="21"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="21"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="21"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="21"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="21"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="21"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="21"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="21"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="21"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="21"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="21"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="21"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="21"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="21"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="21"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="21"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="21"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="21"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="21"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="21"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="21"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="21"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="21"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="21"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="21"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="21"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="21"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="21"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="21"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="21"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="21"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="21"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="21"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="21"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="21"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="21"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="21"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="21"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="21"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="21"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="21"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="21"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="21"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="21"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="21"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="21"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="21"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="21"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="21"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="21"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="21"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="21"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="21"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="21"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="21"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="21"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="21"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="21"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="21"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="21"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="21"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="21"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="21"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="21"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="21"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="21"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="21"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="21"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="21"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="21"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="21"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="21"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="21"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="21"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="21"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="21"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="21"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="21"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="21"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="21"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="21"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="21"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="21"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="21"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="21"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="21"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -6205,29 +6224,33 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C11:C12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="86.42578125" customWidth="1"/>
-    <col min="4" max="26" width="10.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.63"/>
+    <col customWidth="1" min="2" max="2" width="17.25"/>
+    <col customWidth="1" min="3" max="3" width="86.38"/>
+    <col customWidth="1" min="4" max="26" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>58</v>
       </c>
@@ -6238,7 +6261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>19</v>
       </c>
@@ -6249,7 +6272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>19</v>
       </c>
@@ -6260,7 +6283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>65</v>
       </c>
@@ -6271,7 +6294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>68</v>
       </c>
@@ -6282,17 +6305,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="6" ht="12.75" customHeight="1"/>
+    <row r="7" ht="12.75" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1"/>
+    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -7278,33 +7301,35 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="6" width="12.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="31.88"/>
+    <col customWidth="1" min="2" max="2" width="20.75"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
         <v>71</v>
@@ -7334,682 +7359,682 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75">
+    <row r="2">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75">
+    <row r="3">
       <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75">
+    <row r="4">
       <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="12.75">
+    <row r="5">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="18"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="21"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="21"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="21"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="21"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="21"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="21"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="21"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="21"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="21"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="21"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="21"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="21"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="21"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="21"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="21"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="21"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="21"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="21"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="21"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="21"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="21"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="21"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="21"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="21"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="21"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="21"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="21"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="21"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="21"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="21"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="21"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="21"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="21"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="21"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="21"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="21"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="21"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="21"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="21"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="21"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="21"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="21"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="21"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="21"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="21"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="21"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="21"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="21"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="21"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="21"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="21"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="21"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="21"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="21"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="21"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="21"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="21"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="21"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="21"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="21"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="21"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="21"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="21"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="21"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="21"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="21"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="21"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="21"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="21"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="21"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="21"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="21"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="21"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="21"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="21"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="21"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="21"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="21"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="21"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="21"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="21"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="21"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="21"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="21"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="21"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="21"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="21"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="21"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="21"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="21"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="21"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="21"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="21"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="21"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="21"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="21"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="21"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="21"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="21"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="21"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="21"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="21"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="21"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="21"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="21"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="21"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="21"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="21"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="21"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="21"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="21"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="21"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="21"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="21"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="21"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="21"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="21"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="21"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="21"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="21"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="21"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="21"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="21"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="21"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="21"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="21"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="21"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="21"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="21"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="21"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="21"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="21"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="21"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -8787,7 +8812,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>